--- a/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Instructor Files/Section 2/02-10-horizontal-sortby.xlsx
+++ b/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Instructor Files/Section 2/02-10-horizontal-sortby.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f21e54c367d3358c/Documents/01 Work Files/05 SSIT/Online Courses/Excel 2021 Advanced/Course Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git_Excel_Learning\normal\Excel 2021 Beginner to Advanced Course Files\Excel 2021 Advanced Course Files\Instructor Files\Section 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{9D657B8B-B9B5-4F02-AB61-7C5F0FBD7EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41DAF029-A1EA-443C-BF3C-639A4539F5F0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3355B9-2240-4EA4-A621-225B4CB7CA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{F7C54BF8-C9F0-42E7-882B-0196C240C315}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F7C54BF8-C9F0-42E7-882B-0196C240C315}"/>
   </bookViews>
   <sheets>
     <sheet name="Horizontal SORTBY" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
   <si>
     <t>Sales</t>
   </si>
@@ -166,9 +188,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="172" formatCode="[$$-409]#,##0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -210,30 +233,20 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -501,22 +514,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E86906-9D4F-417C-B01C-B523EEC5EA67}">
-  <dimension ref="A2:E18"/>
+  <dimension ref="A2:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="13.3984375" customWidth="1"/>
     <col min="5" max="5" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="7.19921875" customWidth="1"/>
-    <col min="10" max="11" width="9.5" customWidth="1"/>
+    <col min="6" max="8" width="7.19921875" customWidth="1"/>
+    <col min="9" max="13" width="15.69921875" customWidth="1"/>
     <col min="14" max="14" width="13.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -532,8 +545,23 @@
       <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -549,8 +577,24 @@
       <c r="E3" s="2">
         <v>40262</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I3" t="str" cm="1">
+        <f t="array" ref="I3:M16">_xlfn.SORTBY(A3:E16,A18:E18,1)</f>
+        <v>Miss</v>
+      </c>
+      <c r="J3" t="str">
+        <v>Susie</v>
+      </c>
+      <c r="K3" t="str">
+        <v>Brent</v>
+      </c>
+      <c r="L3" t="str">
+        <v>HR</v>
+      </c>
+      <c r="M3" s="4">
+        <v>40262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -566,8 +610,23 @@
       <c r="E4" s="2">
         <v>26846</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I4" t="str">
+        <v>Mr</v>
+      </c>
+      <c r="J4" t="str">
+        <v>Mark</v>
+      </c>
+      <c r="K4" t="str">
+        <v>Young</v>
+      </c>
+      <c r="L4" t="str">
+        <v>IT</v>
+      </c>
+      <c r="M4" s="4">
+        <v>26846</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -583,8 +642,23 @@
       <c r="E5" s="2">
         <v>50978</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I5" t="str">
+        <v>Ms</v>
+      </c>
+      <c r="J5" t="str">
+        <v>Claire</v>
+      </c>
+      <c r="K5" t="str">
+        <v>Cox</v>
+      </c>
+      <c r="L5" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="M5" s="4">
+        <v>50978</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -600,8 +674,23 @@
       <c r="E6" s="2">
         <v>28422</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I6" t="str">
+        <v>Mr</v>
+      </c>
+      <c r="J6" t="str">
+        <v>Sam</v>
+      </c>
+      <c r="K6" t="str">
+        <v>Sanders</v>
+      </c>
+      <c r="L6" t="str">
+        <v>Finance</v>
+      </c>
+      <c r="M6" s="4">
+        <v>28422</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -617,8 +706,23 @@
       <c r="E7" s="2">
         <v>46452</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I7" t="str">
+        <v>Sir</v>
+      </c>
+      <c r="J7" t="str">
+        <v>Ben</v>
+      </c>
+      <c r="K7" t="str">
+        <v>Gould</v>
+      </c>
+      <c r="L7" t="str">
+        <v>Marketing</v>
+      </c>
+      <c r="M7" s="4">
+        <v>46452</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -634,8 +738,23 @@
       <c r="E8" s="2">
         <v>39625</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I8" t="str">
+        <v>Miss</v>
+      </c>
+      <c r="J8" t="str">
+        <v>Deb</v>
+      </c>
+      <c r="K8" t="str">
+        <v>Ashby</v>
+      </c>
+      <c r="L8" t="str">
+        <v>IT</v>
+      </c>
+      <c r="M8" s="4">
+        <v>39625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -651,8 +770,23 @@
       <c r="E9" s="2">
         <v>48481</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I9" t="str">
+        <v>Mr</v>
+      </c>
+      <c r="J9" t="str">
+        <v>Adam</v>
+      </c>
+      <c r="K9" t="str">
+        <v>Lacey</v>
+      </c>
+      <c r="L9" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="M9" s="4">
+        <v>48481</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -668,8 +802,23 @@
       <c r="E10" s="2">
         <v>49949</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I10" t="str">
+        <v>Miss</v>
+      </c>
+      <c r="J10" t="str">
+        <v>Lucy</v>
+      </c>
+      <c r="K10" t="str">
+        <v>Jones</v>
+      </c>
+      <c r="L10" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="M10" s="4">
+        <v>49949</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -685,8 +834,23 @@
       <c r="E11" s="2">
         <v>45081</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I11" t="str">
+        <v>Mr</v>
+      </c>
+      <c r="J11" t="str">
+        <v>Vin</v>
+      </c>
+      <c r="K11" t="str">
+        <v>Patel</v>
+      </c>
+      <c r="L11" t="str">
+        <v>Marketing</v>
+      </c>
+      <c r="M11" s="4">
+        <v>45081</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -702,8 +866,23 @@
       <c r="E12" s="2">
         <v>30260</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I12" t="str">
+        <v>Mr</v>
+      </c>
+      <c r="J12" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="K12" t="str">
+        <v>Rodriguez</v>
+      </c>
+      <c r="L12" t="str">
+        <v>HR</v>
+      </c>
+      <c r="M12" s="4">
+        <v>30260</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -719,8 +898,23 @@
       <c r="E13" s="2">
         <v>52775</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I13" t="str">
+        <v>Ms</v>
+      </c>
+      <c r="J13" t="str">
+        <v>Kata</v>
+      </c>
+      <c r="K13" t="str">
+        <v>Smart</v>
+      </c>
+      <c r="L13" t="str">
+        <v>HR</v>
+      </c>
+      <c r="M13" s="4">
+        <v>52775</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -736,8 +930,23 @@
       <c r="E14" s="2">
         <v>52059</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I14" t="str">
+        <v>Ms</v>
+      </c>
+      <c r="J14" t="str">
+        <v>Brooke</v>
+      </c>
+      <c r="K14" t="str">
+        <v>Burns</v>
+      </c>
+      <c r="L14" t="str">
+        <v>Finance</v>
+      </c>
+      <c r="M14" s="4">
+        <v>52059</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -753,8 +962,23 @@
       <c r="E15" s="2">
         <v>39441</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I15" t="str">
+        <v>Miss</v>
+      </c>
+      <c r="J15" t="str">
+        <v>Courtney</v>
+      </c>
+      <c r="K15" t="str">
+        <v>Fletcher</v>
+      </c>
+      <c r="L15" t="str">
+        <v>Finance</v>
+      </c>
+      <c r="M15" s="4">
+        <v>39441</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -770,9 +994,53 @@
       <c r="E16" s="2">
         <v>44793</v>
       </c>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E18" s="3"/>
+      <c r="I16" t="str">
+        <v>Miss</v>
+      </c>
+      <c r="J16" t="str">
+        <v>Julie</v>
+      </c>
+      <c r="K16" t="str">
+        <v>Bellingham</v>
+      </c>
+      <c r="L16" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="M16" s="4">
+        <v>44793</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>4</v>
+      </c>
+      <c r="M18">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G22:G37">
